--- a/data_year/zb/城市概况/城市市政设施.xlsx
+++ b/data_year/zb/城市概况/城市市政设施.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,426 +468,301 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>21.88809</v>
+        <v>36.9553</v>
       </c>
       <c r="C2" t="n">
-        <v>51092</v>
+        <v>52548</v>
       </c>
       <c r="D2" t="n">
-        <v>7387.24</v>
+        <v>13392.9</v>
       </c>
       <c r="E2" t="n">
-        <v>10531538</v>
+        <v>17739889</v>
       </c>
       <c r="F2" t="n">
-        <v>22.296375</v>
+        <v>29.4443</v>
       </c>
       <c r="G2" t="n">
-        <v>352954.63</v>
+        <v>521321.8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>24.105567</v>
+        <v>41.407399</v>
       </c>
       <c r="C3" t="n">
-        <v>52123</v>
+        <v>53386</v>
       </c>
       <c r="D3" t="n">
-        <v>7989.74</v>
+        <v>13304.1</v>
       </c>
       <c r="E3" t="n">
-        <v>12070195</v>
+        <v>19492076</v>
       </c>
       <c r="F3" t="n">
-        <v>24.701486</v>
+        <v>30.889687</v>
       </c>
       <c r="G3" t="n">
-        <v>392166.47</v>
+        <v>562523.1800000001</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>26.1379</v>
+        <v>43.907994</v>
       </c>
       <c r="C4" t="n">
-        <v>54643</v>
+        <v>57601</v>
       </c>
       <c r="D4" t="n">
-        <v>9734</v>
+        <v>13692.9</v>
       </c>
       <c r="E4" t="n">
-        <v>12837000</v>
+        <v>20622248</v>
       </c>
       <c r="F4" t="n">
-        <v>24.12</v>
+        <v>32.7081</v>
       </c>
       <c r="G4" t="n">
-        <v>410900</v>
+        <v>607449.3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>29.1933</v>
+        <v>46.487782</v>
       </c>
       <c r="C5" t="n">
-        <v>48100</v>
+        <v>59530</v>
       </c>
       <c r="D5" t="n">
-        <v>10336.5</v>
+        <v>14652.7</v>
       </c>
       <c r="E5" t="n">
-        <v>13949521</v>
+        <v>21995472</v>
       </c>
       <c r="F5" t="n">
-        <v>24.61721</v>
+        <v>33.630375</v>
       </c>
       <c r="G5" t="n">
-        <v>423662</v>
+        <v>644154.75</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>31.522</v>
+        <v>51.11785</v>
       </c>
       <c r="C6" t="n">
-        <v>49840</v>
+        <v>61872</v>
       </c>
       <c r="D6" t="n">
-        <v>11172.5</v>
+        <v>15123.5</v>
       </c>
       <c r="E6" t="n">
-        <v>15104336</v>
+        <v>23019144</v>
       </c>
       <c r="F6" t="n">
-        <v>25.97397</v>
+        <v>35.233333</v>
       </c>
       <c r="G6" t="n">
-        <v>452433</v>
+        <v>683027.9</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>34.3892</v>
+        <v>53.956698</v>
       </c>
       <c r="C7" t="n">
-        <v>51068</v>
+        <v>64512</v>
       </c>
       <c r="D7" t="n">
-        <v>12183.9</v>
+        <v>16065.4</v>
       </c>
       <c r="E7" t="n">
-        <v>16942776</v>
+        <v>24225203</v>
       </c>
       <c r="F7" t="n">
-        <v>26.91414</v>
+        <v>36.49776</v>
       </c>
       <c r="G7" t="n">
-        <v>481947</v>
+        <v>717675.11</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>36.9553</v>
+        <v>57.661651</v>
       </c>
       <c r="C8" t="n">
-        <v>52548</v>
+        <v>67737</v>
       </c>
       <c r="D8" t="n">
-        <v>13392.9</v>
+        <v>16779.2</v>
       </c>
       <c r="E8" t="n">
-        <v>17739889</v>
+        <v>25623261</v>
       </c>
       <c r="F8" t="n">
-        <v>29.4443</v>
+        <v>38.245362</v>
       </c>
       <c r="G8" t="n">
-        <v>521321.8</v>
+        <v>753818.86</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>41.407399</v>
+        <v>63.03036</v>
       </c>
       <c r="C9" t="n">
-        <v>53386</v>
+        <v>69816</v>
       </c>
       <c r="D9" t="n">
-        <v>13304.1</v>
+        <v>17036.7</v>
       </c>
       <c r="E9" t="n">
-        <v>19492076</v>
+        <v>25936289</v>
       </c>
       <c r="F9" t="n">
-        <v>30.889687</v>
+        <v>39.783023</v>
       </c>
       <c r="G9" t="n">
-        <v>562523.1800000001</v>
+        <v>788852.58</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>43.907994</v>
+        <v>68.34847499999999</v>
       </c>
       <c r="C10" t="n">
-        <v>57601</v>
+        <v>73432</v>
       </c>
       <c r="D10" t="n">
-        <v>13692.9</v>
+        <v>18145.22</v>
       </c>
       <c r="E10" t="n">
-        <v>20622248</v>
+        <v>27383445</v>
       </c>
       <c r="F10" t="n">
-        <v>32.7081</v>
+        <v>43.223112</v>
       </c>
       <c r="G10" t="n">
-        <v>607449.3</v>
+        <v>854268.1800000001</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>46.487782</v>
+        <v>74.39819</v>
       </c>
       <c r="C11" t="n">
-        <v>59530</v>
+        <v>76157</v>
       </c>
       <c r="D11" t="n">
-        <v>14652.7</v>
+        <v>19170.96</v>
       </c>
       <c r="E11" t="n">
-        <v>21995472</v>
+        <v>28655982</v>
       </c>
       <c r="F11" t="n">
-        <v>33.630375</v>
+        <v>45.924531</v>
       </c>
       <c r="G11" t="n">
-        <v>644154.75</v>
+        <v>909677.83</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2014年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>51.11785</v>
+        <v>80.272077</v>
       </c>
       <c r="C12" t="n">
-        <v>61872</v>
+        <v>79752</v>
       </c>
       <c r="D12" t="n">
-        <v>15123.5</v>
+        <v>20405.14</v>
       </c>
       <c r="E12" t="n">
-        <v>23019144</v>
+        <v>30485606</v>
       </c>
       <c r="F12" t="n">
-        <v>35.233333</v>
+        <v>49.265037</v>
       </c>
       <c r="G12" t="n">
-        <v>683027.9</v>
+        <v>969802.54</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>53.956698</v>
+        <v>87.2283</v>
       </c>
       <c r="C13" t="n">
-        <v>64512</v>
+        <v>83673</v>
       </c>
       <c r="D13" t="n">
-        <v>16065.4</v>
+        <v>21745.7</v>
       </c>
       <c r="E13" t="n">
-        <v>24225203</v>
+        <v>32459300</v>
       </c>
       <c r="F13" t="n">
-        <v>36.49776</v>
+        <v>53.247643</v>
       </c>
       <c r="G13" t="n">
-        <v>717675.11</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>57.661651</v>
-      </c>
-      <c r="C14" t="n">
-        <v>67737</v>
-      </c>
-      <c r="D14" t="n">
-        <v>16779.2</v>
-      </c>
-      <c r="E14" t="n">
-        <v>25623261</v>
-      </c>
-      <c r="F14" t="n">
-        <v>38.245362</v>
-      </c>
-      <c r="G14" t="n">
-        <v>753818.86</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>63.03036</v>
-      </c>
-      <c r="C15" t="n">
-        <v>69816</v>
-      </c>
-      <c r="D15" t="n">
-        <v>17036.7</v>
-      </c>
-      <c r="E15" t="n">
-        <v>25936289</v>
-      </c>
-      <c r="F15" t="n">
-        <v>39.783023</v>
-      </c>
-      <c r="G15" t="n">
-        <v>788852.58</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>68.34847499999999</v>
-      </c>
-      <c r="C16" t="n">
-        <v>73432</v>
-      </c>
-      <c r="D16" t="n">
-        <v>18145.22</v>
-      </c>
-      <c r="E16" t="n">
-        <v>27383445</v>
-      </c>
-      <c r="F16" t="n">
-        <v>43.223112</v>
-      </c>
-      <c r="G16" t="n">
-        <v>854268.1800000001</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>74.39819</v>
-      </c>
-      <c r="C17" t="n">
-        <v>76157</v>
-      </c>
-      <c r="D17" t="n">
-        <v>19170.96</v>
-      </c>
-      <c r="E17" t="n">
-        <v>28655982</v>
-      </c>
-      <c r="F17" t="n">
-        <v>45.924531</v>
-      </c>
-      <c r="G17" t="n">
-        <v>909677.83</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>80.272077</v>
-      </c>
-      <c r="C18" t="n">
-        <v>79752</v>
-      </c>
-      <c r="D18" t="n">
-        <v>20405.14</v>
-      </c>
-      <c r="E18" t="n">
-        <v>30485606</v>
-      </c>
-      <c r="F18" t="n">
-        <v>49.265037</v>
-      </c>
-      <c r="G18" t="n">
-        <v>969802.54</v>
+        <v>1053655.18</v>
       </c>
     </row>
   </sheetData>
